--- a/biology/Botanique/Jardin_botanique_de_Karlsruhe/Jardin_botanique_de_Karlsruhe.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Karlsruhe/Jardin_botanique_de_Karlsruhe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de Karlsruhe (allemand : Botanischer Garten Karlsruhe) est un jardin botanique ouvert au public dans la ville de Karlsruhe en Allemagne. Il se trouve à l'ouest du château de Karlsruhe et il est bordé par l'orangerie, les serres, le jardin d'hiver et la Kunsthalle et il est à proximité du Tribunal constitutionnel fédéral de Karlsruhe. C'est un havre de paix au sein de la ville.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C'est le margrave Charles-Guillaume de Bade-Durlach (1679-1738) qui décide de l'aménagement d'un jardin botanique. Il fait construire entre deux ailes de son château un « jardin de plaisir princier » avec des orangeries, jardins, serres, parterres, volières et grottes. En 1800, le margrave Charles-Frédéric de Bade décide de refaire le parc à l'anglaise et ainsi à l'ouest du château, à l'endroit actuel, de planter un nouveau jardin botanique. Celui-ci est réalisé selon les plans de Friedrich Weinbrenner et en 1808 il est inauguré avec divers bâtiments[1]. Ces bâtiments sont construits d'abord en bois. Dans les années 1850, le grand-duc Frédéric Ier de Bade (1826-1907) fait reconstruire par Heinrich Hübsch les bâtiments de jardinage dont une nouvelle orangerie. On peut remarquer des plantes rares dans les serres installées depuis le XIXe siècle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C'est le margrave Charles-Guillaume de Bade-Durlach (1679-1738) qui décide de l'aménagement d'un jardin botanique. Il fait construire entre deux ailes de son château un « jardin de plaisir princier » avec des orangeries, jardins, serres, parterres, volières et grottes. En 1800, le margrave Charles-Frédéric de Bade décide de refaire le parc à l'anglaise et ainsi à l'ouest du château, à l'endroit actuel, de planter un nouveau jardin botanique. Celui-ci est réalisé selon les plans de Friedrich Weinbrenner et en 1808 il est inauguré avec divers bâtiments. Ces bâtiments sont construits d'abord en bois. Dans les années 1850, le grand-duc Frédéric Ier de Bade (1826-1907) fait reconstruire par Heinrich Hübsch les bâtiments de jardinage dont une nouvelle orangerie. On peut remarquer des plantes rares dans les serres installées depuis le XIXe siècle.
 Panorama du jardin botanique avec l'orangerie, le jardin d'hiver, etc.</t>
         </is>
       </c>
